--- a/data/outputs/OR/28.xlsx
+++ b/data/outputs/OR/28.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ182"/>
+  <dimension ref="A1:BR182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +936,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1144,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1349,6 +1356,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4817796</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1560,6 +1572,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1767,6 +1780,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1982,6 +1996,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2189,6 +2204,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2400,6 +2416,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2607,6 +2624,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2818,6 +2836,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3033,6 +3052,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3232,6 +3252,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4567091</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3423,6 +3448,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3614,6 +3640,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3817,6 +3844,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4036,6 +4064,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4255,6 +4284,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4474,6 +4504,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4677,6 +4708,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4884,6 +4916,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5087,6 +5120,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>3845933</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5302,6 +5340,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5521,6 +5560,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5740,6 +5780,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5951,6 +5992,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6170,6 +6212,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6389,6 +6432,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>3918101</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6600,6 +6648,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6807,6 +6856,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7014,6 +7064,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4655186</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7193,6 +7248,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7412,6 +7468,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7607,6 +7664,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7810,6 +7868,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8013,6 +8072,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8228,6 +8288,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8435,6 +8496,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>4468400</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8650,6 +8716,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8857,6 +8924,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9068,6 +9136,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9271,6 +9340,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9482,6 +9552,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9685,6 +9756,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9900,6 +9972,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10119,6 +10192,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10330,6 +10404,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10541,6 +10616,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10760,6 +10836,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10963,6 +11040,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11178,6 +11256,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11385,6 +11464,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11588,6 +11668,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11795,6 +11876,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12002,6 +12084,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12209,6 +12292,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12420,6 +12504,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12631,6 +12716,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12838,6 +12924,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>4353815</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13049,6 +13140,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13252,6 +13344,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13463,6 +13556,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>3047300</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13674,6 +13772,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13881,6 +13980,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14092,6 +14192,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14311,6 +14412,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14514,6 +14616,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14717,6 +14820,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14916,6 +15020,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15119,6 +15224,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15334,6 +15440,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15537,6 +15644,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15752,6 +15860,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>2938427</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15959,6 +16072,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16178,6 +16292,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16385,6 +16500,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>4348130</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16592,6 +16712,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16811,6 +16932,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17018,6 +17140,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17217,6 +17340,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17416,6 +17540,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17619,6 +17744,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17830,6 +17956,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18029,6 +18156,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>47644160</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18248,6 +18380,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>2652334</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18455,6 +18592,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18654,6 +18792,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18861,6 +19000,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19060,6 +19200,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19275,6 +19416,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19454,6 +19596,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19661,6 +19804,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19880,6 +20024,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20087,6 +20232,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20290,6 +20436,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20509,6 +20656,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20716,6 +20864,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20919,6 +21068,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21122,6 +21272,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21333,6 +21484,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21536,6 +21688,11 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>3960887</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21739,6 +21896,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21954,6 +22112,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22161,6 +22320,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22368,6 +22528,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22579,6 +22740,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22782,6 +22944,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22977,6 +23140,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23188,6 +23352,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23395,6 +23560,11 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr">
+        <is>
+          <t>3921554</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23606,6 +23776,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23821,6 +23992,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24024,6 +24196,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24227,6 +24400,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24438,6 +24612,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24641,6 +24816,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24860,6 +25036,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25071,6 +25248,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25290,6 +25468,11 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>2335207</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25501,6 +25684,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25712,6 +25896,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25911,6 +26096,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26122,6 +26308,11 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr">
+        <is>
+          <t>2215254</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26333,6 +26524,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26532,6 +26724,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26739,6 +26932,11 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>2221899</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26946,6 +27144,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27145,6 +27344,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27356,6 +27556,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27575,6 +27776,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27770,6 +27972,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27965,6 +28168,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28152,6 +28356,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>6810162</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28339,6 +28548,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>6810164</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28542,6 +28756,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28745,6 +28960,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28944,6 +29160,11 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>3808712</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29147,6 +29368,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29354,6 +29576,11 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr">
+        <is>
+          <t>3937996</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29557,6 +29784,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29768,6 +29996,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>3236270</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -29979,6 +30212,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30182,6 +30416,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30381,6 +30616,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30592,6 +30828,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30807,6 +31044,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31014,6 +31252,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31229,6 +31468,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31424,6 +31664,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31627,6 +31868,11 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr">
+        <is>
+          <t>2141444</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31830,6 +32076,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32049,6 +32296,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32260,6 +32508,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32483,6 +32732,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32694,6 +32944,11 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr">
+        <is>
+          <t>3040341</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32905,6 +33160,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33112,6 +33368,11 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr">
+        <is>
+          <t>2761639</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33327,6 +33588,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33538,6 +33800,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33757,6 +34020,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -33968,6 +34232,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34167,6 +34432,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34370,6 +34636,11 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr">
+        <is>
+          <t>15595143</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34565,6 +34836,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -34768,6 +35040,11 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr">
+        <is>
+          <t>2563817</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -34983,6 +35260,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35194,6 +35472,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35405,6 +35684,11 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr">
+        <is>
+          <t>1594764</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35612,6 +35896,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -35815,6 +36100,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36026,6 +36312,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36233,6 +36520,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36436,6 +36724,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -36647,6 +36936,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -36854,6 +37144,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37073,6 +37364,11 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr">
+        <is>
+          <t>3031450</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37272,6 +37568,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37475,6 +37772,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -37662,6 +37960,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -37849,6 +38148,11 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr">
+        <is>
+          <t>2954754</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38068,6 +38372,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38287,6 +38592,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
